--- a/aiurt-module-system/src/main/resources/templates/materialBaseType1.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/materialBaseType1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14719\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32986CBD-975D-4EF7-92F8-14BB5B467CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2579F-AB9F-4953-9F83-79E6CE7FB6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="975" windowWidth="26445" windowHeight="12765" xr2:uid="{9E7265BD-ADFD-4293-B80F-1C1FF7DB0A08}"/>
+    <workbookView xWindow="0" yWindow="885" windowWidth="26445" windowHeight="12765" xr2:uid="{9E7265BD-ADFD-4293-B80F-1C1FF7DB0A08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="物资导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -118,11 +118,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +441,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,13 +453,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -474,7 +474,7 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/materialBaseType1.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/materialBaseType1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2579F-AB9F-4953-9F83-79E6CE7FB6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CFB62A-E14C-4284-8B2C-537DF965117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="885" windowWidth="26445" windowHeight="12765" xr2:uid="{9E7265BD-ADFD-4293-B80F-1C1FF7DB0A08}"/>
+    <workbookView xWindow="2145" yWindow="1965" windowWidth="26445" windowHeight="12765" xr2:uid="{9E7265BD-ADFD-4293-B80F-1C1FF7DB0A08}"/>
   </bookViews>
   <sheets>
     <sheet name="物资导入模板" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +91,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,15 +128,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +458,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,28 +470,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/materialBaseType1.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/materialBaseType1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CFB62A-E14C-4284-8B2C-537DF965117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D292A94-B37A-409B-ADB7-2271EBED60B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1965" windowWidth="26445" windowHeight="12765" xr2:uid="{9E7265BD-ADFD-4293-B80F-1C1FF7DB0A08}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26445" windowHeight="12765" xr2:uid="{9E7265BD-ADFD-4293-B80F-1C1FF7DB0A08}"/>
   </bookViews>
   <sheets>
     <sheet name="物资导入模板" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>物资导入模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,13 +55,21 @@
   <si>
     <t>分类状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写须知：
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+字段说明：
+红底白字未必填字段!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +102,24 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -128,18 +154,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF37EF2D-34F2-421D-B507-034D2FED3423}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,37 +501,48 @@
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>